--- a/Ejercicio Selenium IDE.xlsx
+++ b/Ejercicio Selenium IDE.xlsx
@@ -1,14 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorios\Test1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Flujos" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Distribucion" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Gráfico" sheetId="3" r:id="rId6"/>
+    <sheet name="Flujos" sheetId="1" r:id="rId1"/>
+    <sheet name="Distribucion" sheetId="2" r:id="rId2"/>
+    <sheet name="Gráfico" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="56JCtb1/xLl/Ba4NbZU2gMOfOTQZRBXw2NUuRFDwwuA="/>
@@ -25,20 +33,20 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">Link: </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
       </rPr>
       <t>https://www.aerolineas.com.ar/</t>
     </r>
@@ -134,60 +142,71 @@
     <t>Arnold Reyes</t>
   </si>
   <si>
-    <t>Olver Motta</t>
-  </si>
-  <si>
     <t>Ricardo Diaz</t>
   </si>
   <si>
     <t>Grafico de avances</t>
   </si>
+  <si>
+    <t>Olver Motta Rojas</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <b/>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF1155CC"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -196,7 +215,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -254,19 +273,28 @@
     </fill>
   </fills>
   <borders count="8">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -276,17 +304,10 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <right/>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -294,6 +315,18 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -308,14 +341,18 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -328,74 +365,85 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="5" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="5" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="10" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:view3D>
       <c:rotX val="50"/>
-      <c:perspective val="0"/>
+      <c:rotY val="0"/>
+      <c:rAngAx val="1"/>
     </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:pie3DChart>
@@ -405,6 +453,7 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FFFF00"/>
@@ -413,6 +462,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="4A86E8"/>
@@ -421,30 +471,46 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="00FF00"/>
               </a:solidFill>
             </c:spPr>
           </c:dPt>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Distribucion!$F$4:$F$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>No iniciado</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>En proceso</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Finalizado</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Distribucion!$G$4:$G$6</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -455,6 +521,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
       </c:pie3DChart>
     </c:plotArea>
@@ -473,29 +540,29 @@
               <a:latin typeface="Arial black"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
       <a:srgbClr val="C9DAF8"/>
     </a:solidFill>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -504,7 +571,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="959103733" name="Chart 1" title="Gráfico"/>
         <xdr:cNvGraphicFramePr/>
@@ -515,7 +582,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -534,14 +601,14 @@
         <xdr:cNvPr id="613248181" name="Chart2" title="Gráfico">
           <a:extLst>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -559,7 +626,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -749,185 +816,185 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.71"/>
-    <col customWidth="1" min="2" max="2" width="24.29"/>
-    <col customWidth="1" min="3" max="3" width="38.86"/>
-    <col customWidth="1" min="4" max="4" width="29.71"/>
-    <col customWidth="1" min="5" max="5" width="33.71"/>
-    <col customWidth="1" min="6" max="26" width="10.71"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
+    <col min="6" max="26" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="1:5" ht="21">
+      <c r="C2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="13"/>
     </row>
-    <row r="3">
-      <c r="C3" s="3" t="s">
+    <row r="3" spans="1:5">
+      <c r="C3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="15"/>
     </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="27.0" customHeight="1">
-      <c r="A5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="1:5" ht="27" customHeight="1">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="3">
         <v>0.95</v>
       </c>
     </row>
-    <row r="6" ht="32.25" customHeight="1">
-      <c r="A6" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="B6" s="8" t="s">
+    <row r="6" spans="1:5" ht="32.25" customHeight="1">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="3">
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" ht="28.5" customHeight="1">
-      <c r="A7" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="1:5" ht="28.5" customHeight="1">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="7">
-        <v>1.0</v>
+      <c r="E7" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="8" ht="25.5" customHeight="1">
-      <c r="A8" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="B8" s="6" t="s">
+    <row r="8" spans="1:5" ht="25.5" customHeight="1">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="7">
-        <v>1.0</v>
+      <c r="E8" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="9" ht="32.25" customHeight="1">
-      <c r="A9" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="B9" s="6" t="s">
+    <row r="9" spans="1:5" ht="32.25" customHeight="1">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="7">
-        <v>1.0</v>
+      <c r="E9" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="10" ht="30.75" customHeight="1">
-      <c r="A10" s="6">
-        <v>6.0</v>
-      </c>
-      <c r="B10" s="6" t="s">
+    <row r="10" spans="1:5" ht="30.75" customHeight="1">
+      <c r="A10" s="2">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="7">
-        <v>1.0</v>
+      <c r="E10" s="3">
+        <v>1</v>
       </c>
     </row>
-    <row r="11" ht="26.25" customHeight="1">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+    <row r="11" spans="1:5" ht="26.25" customHeight="1">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
     </row>
-    <row r="12" ht="31.5" customHeight="1">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+    <row r="12" spans="1:5" ht="31.5" customHeight="1">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
     </row>
-    <row r="13" ht="33.0" customHeight="1">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+    <row r="13" spans="1:5" ht="33" customHeight="1">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
     </row>
-    <row r="14" ht="36.0" customHeight="1">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+    <row r="14" spans="1:5" ht="36" customHeight="1">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -1915,175 +1982,173 @@
     <mergeCell ref="C3:D3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C3"/>
+    <hyperlink ref="C3" r:id="rId1"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:G999"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.71"/>
-    <col customWidth="1" min="2" max="2" width="22.0"/>
-    <col customWidth="1" min="3" max="3" width="28.14"/>
-    <col customWidth="1" min="4" max="5" width="23.29"/>
-    <col customWidth="1" min="6" max="27" width="10.71"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="5" width="23.28515625" customWidth="1"/>
+    <col min="6" max="27" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3">
-      <c r="B3" s="10" t="s">
+    <row r="3" spans="2:7" ht="15.75">
+      <c r="B3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="2"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="13"/>
     </row>
-    <row r="4">
-      <c r="B4" s="12" t="s">
+    <row r="4" spans="2:7">
+      <c r="B4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="9">
         <f>COUNTIF($E$5:$E$11,"No Iniciado")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="2:7">
+      <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
         <f>Flujos!E5</f>
         <v>0.95</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="9">
         <f>COUNTIF($E$5:$E$11,"En proceso")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="2:7">
+      <c r="B6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
         <f>Flujos!E6</f>
         <v>0.9</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="9">
         <f>COUNTIF($E$5:$E$11,"Finalizado")</f>
         <v>6</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="2:7">
+      <c r="B7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
         <f>Flujos!E7</f>
         <v>1</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" s="6" t="s">
+    <row r="8" spans="2:7">
+      <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3">
         <f>Flujos!E8</f>
         <v>1</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="D9" s="7">
+    <row r="9" spans="2:7">
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3">
         <f>Flujos!E9</f>
         <v>1</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="6">
-        <v>6.0</v>
-      </c>
-      <c r="D10" s="7">
+    <row r="10" spans="2:7">
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3">
         <f>Flujos!E10</f>
         <v>1</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" s="9"/>
-      <c r="C11" s="6">
-        <v>7.0</v>
-      </c>
-      <c r="D11" s="6" t="str">
+    <row r="11" spans="2:7">
+      <c r="B11" s="5"/>
+      <c r="C11" s="2">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2">
         <f>Flujos!E11</f>
-        <v/>
-      </c>
-      <c r="E11" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="2"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -3069,33 +3134,29 @@
   <mergeCells count="1">
     <mergeCell ref="B3:E3"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="10.71"/>
+    <col min="1" max="26" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3">
+    <row r="3" spans="3:6">
       <c r="C3" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -4081,8 +4142,7 @@
   <mergeCells count="1">
     <mergeCell ref="C3:F3"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
